--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706583.4460084754</v>
+        <v>-709118.4168843299</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13564748.31493005</v>
+        <v>13564748.31493006</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>302.4973592433166</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>313.8769665685562</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>104.7502047986029</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.67611869136724</v>
+        <v>220.699095528176</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>95.0409351401297</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>65.53378126910303</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>28.27207585137884</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>151.9188428569234</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>100.4028078304875</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>160.9821699216177</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.7580505000009</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>273.9941583361614</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>52.54490042790553</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.7030888155095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068612798</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>16.93966244919647</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>38.95525409457819</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>167.5280026112704</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194029</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>39.99000985192075</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>151.3113851298092</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261729</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545297</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.184635123826</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.222118183415</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>3008.558380630832</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W2" t="n">
-        <v>2655.789725360718</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X2" t="n">
-        <v>2282.323967099638</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.184635123826</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962486</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034579</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622244</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039851</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.7753643667</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3129.967076691343</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2908.200461260869</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>2908.200461260869</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>2892.365997936256</v>
+        <v>1614.535711524631</v>
       </c>
       <c r="W4" t="n">
-        <v>2892.365997936256</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936256</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792726</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3259.410082953511</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3053.432335337733</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3053.432335337733</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.369447994162</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.369447994162</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2348.903689733083</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.764357757271</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1898.736895713363</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1707.051011540189</v>
       </c>
       <c r="T7" t="n">
-        <v>1492.324830049692</v>
+        <v>1485.284396109715</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.221963175336</v>
+        <v>1196.181529235359</v>
       </c>
       <c r="V7" t="n">
-        <v>1203.221963175336</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="W7" t="n">
-        <v>1203.221963175336</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="X7" t="n">
-        <v>975.2324122773183</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>922.582043345504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2721.644013346617</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.644013346617</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1538.951893036482</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1249.849026162126</v>
+        <v>1650.53277199136</v>
       </c>
       <c r="V10" t="n">
-        <v>995.1645379562392</v>
+        <v>1395.848283785473</v>
       </c>
       <c r="W10" t="n">
-        <v>705.7473679192786</v>
+        <v>1106.431113748512</v>
       </c>
       <c r="X10" t="n">
-        <v>477.7578170212613</v>
+        <v>878.441562850495</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>657.6489837069648</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5191,55 +5191,55 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y13" t="n">
         <v>1113.119525808646</v>
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909568</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>334.7259677085636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>334.7259677085636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797705</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380845</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101776</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>422.7903292978418</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154487</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154487</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683242</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.7543264856228</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
         <v>402.7245934908938</v>
@@ -5902,58 +5902,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.4027913158625</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5348780504994</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>944.1833428807391</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,16 +6835,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,31 +6856,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7075,19 +7075,19 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7315,16 +7315,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>62.77553252769093</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.87529190157869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>38.0873158691385</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>236.4615246324608</v>
+        <v>31.438547795652</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>128.4813855737391</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.8815645365853</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.8157004124999</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>148.5844758430724</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>126.5688841976907</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>118.6564717779738</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>205.8445769401545</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>246.1944645373234</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>134.8730892594349</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1180121.672990707</v>
+        <v>1180121.672990706</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26323,7 +26323,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26332,28 +26332,28 @@
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291435</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15465.61676588928</v>
+        <v>15465.61676588957</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26433,16 +26433,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26454,10 +26454,10 @@
         <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987465</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1244873.182929406</v>
+        <v>-1245198.528019688</v>
       </c>
       <c r="C6" t="n">
-        <v>48634.46733975945</v>
+        <v>48634.46733975921</v>
       </c>
       <c r="D6" t="n">
         <v>48634.46733975923</v>
       </c>
       <c r="E6" t="n">
-        <v>-194948.1000110419</v>
+        <v>-194982.8379364773</v>
       </c>
       <c r="F6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="G6" t="n">
-        <v>130464.3617963134</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="H6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="I6" t="n">
-        <v>130464.3617963136</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="J6" t="n">
-        <v>-87066.84060096407</v>
+        <v>-87101.57852639964</v>
       </c>
       <c r="K6" t="n">
-        <v>130464.3617963134</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="L6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="M6" t="n">
-        <v>20117.72162635106</v>
+        <v>20117.72162635124</v>
       </c>
       <c r="N6" t="n">
-        <v>124600.4675554946</v>
+        <v>124600.4675554947</v>
       </c>
       <c r="O6" t="n">
-        <v>124600.4675554951</v>
+        <v>124600.467555495</v>
       </c>
       <c r="P6" t="n">
-        <v>124600.467555495</v>
+        <v>124600.4675554949</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>85.01882053283897</v>
+        <v>151.6817094623034</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>259.6421064805533</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.6539805190728</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>60.66007681866849</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>67.63010641924575</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>306.473237911224</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>188.2587987957953</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>113.7908987761682</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.2176798694515</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28852,10 +28852,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.834409677975332e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066206</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
